--- a/data/huambocancha_alta.xlsx
+++ b/data/huambocancha_alta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,25 +462,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -502,21 +507,24 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>13</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>21</v>
       </c>
     </row>
@@ -539,18 +547,21 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>12</v>
       </c>
     </row>
@@ -570,21 +581,24 @@
         <v>7</v>
       </c>
       <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>14</v>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
       <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
         <v>14</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -604,21 +618,24 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>18</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>13</v>
       </c>
     </row>
@@ -638,21 +655,24 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>16</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>11</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -672,21 +692,24 @@
         <v>11</v>
       </c>
       <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>17</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>17</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>14</v>
       </c>
     </row>
@@ -706,23 +729,26 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
       <c r="G8" t="n">
         <v>10</v>
       </c>
       <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
         <v>13</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>11</v>
       </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -740,21 +766,24 @@
         <v>11</v>
       </c>
       <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>13</v>
       </c>
       <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
         <v>14</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -774,11 +803,11 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
       <c r="G10" t="n">
         <v>10</v>
       </c>
@@ -786,9 +815,12 @@
         <v>10</v>
       </c>
       <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
         <v>14</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -808,21 +840,24 @@
         <v>9</v>
       </c>
       <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
       <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
         <v>11</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -842,21 +877,24 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
       </c>
       <c r="G12" t="n">
         <v>9</v>
       </c>
       <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -876,21 +914,24 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>11</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>9</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>14</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -910,21 +951,24 @@
         <v>9</v>
       </c>
       <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>17</v>
-      </c>
-      <c r="H14" t="n">
-        <v>12</v>
       </c>
       <c r="I14" t="n">
         <v>12</v>
       </c>
       <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
         <v>13</v>
       </c>
     </row>
@@ -950,15 +994,18 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>17</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>13</v>
       </c>
     </row>
@@ -973,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,25 +1056,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -1056,30 +1108,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -1109,25 +1166,30 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1154,28 +1216,33 @@
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1202,28 +1269,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1250,28 +1322,33 @@
           <t>7</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1298,28 +1375,33 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -1346,12 +1428,12 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>10</t>
@@ -1359,15 +1441,20 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1394,28 +1481,33 @@
           <t>11</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -1442,12 +1534,12 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>10</t>
@@ -1460,10 +1552,15 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1490,28 +1587,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1538,28 +1640,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1586,28 +1693,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1634,28 +1746,33 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1680,18 +1797,19 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
